--- a/02-09-25 to 02-15-25 Milwaukee Schedule.xlsx
+++ b/02-09-25 to 02-15-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y63"/>
+  <dimension ref="A1:Y65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,11 +539,7 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -575,24 +571,64 @@
           <t> </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bag 1, SB 11</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
     </row>
@@ -606,24 +642,64 @@
           <t> </t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Bag 1,SB 11</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Bag 5</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Bag 1, SB 11</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Bag 1, SB 11</t>
+        </is>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
     </row>
@@ -637,34 +713,62 @@
           <t> </t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Bags 5,6</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Bag 1, SB 11</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Bag 4</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Bag 4</t>
+        </is>
+      </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>No Kroger Pick N Save or Mariano stores can have inventories this week</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
@@ -672,111 +776,71 @@
           <t> </t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>6:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>After this week, stores will be very steady</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>No Kroger Pick N Save or Mariano stores can have inventories this week</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -784,7 +848,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #614, MILWAUKEE</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -792,7 +856,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #612, BROOKFIELD</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -800,7 +864,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -808,7 +872,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #605, BAYSIDE</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -817,13 +881,21 @@
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>After this week, stores will be very steady</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #493, RACINE</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -831,7 +903,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>3100 S 76TH ST</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -839,7 +911,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>17235 W BLUEMOUND RD</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -847,7 +919,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #9570, RACINE</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -855,7 +927,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>501 W BROWN DEER RD</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -870,7 +942,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3441 SPRING ST</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -878,7 +950,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fpg1rAd58h22</t>
+          <t>OPEN PANTRY #614, MILWAUKEE</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -886,7 +958,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/awRYbmypZ4H2</t>
+          <t>OPEN PANTRY #612, BROOKFIELD</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -894,7 +966,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>2731 DURAND AVE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -902,7 +974,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/pQaSRAn88Vh6DAQ58</t>
+          <t>OPEN PANTRY #605, BAYSIDE</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -917,29 +989,41 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
+          <t>OPEN PANTRY #493, RACINE</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>3100 S 76TH ST</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>17235 W BLUEMOUND RD</t>
+        </is>
+      </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/boUkpED44a62</t>
+          <t>OPEN PANTRY #9570, RACINE</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>501 W BROWN DEER RD</t>
+        </is>
+      </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
@@ -950,60 +1034,44 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3441 SPRING ST</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/fpg1rAd58h22</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/awRYbmypZ4H2</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>2731 DURAND AVE</t>
+        </is>
+      </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/pQaSRAn88Vh6DAQ58</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
     </row>
@@ -1012,72 +1080,32 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/boUkpED44a62</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
@@ -1087,75 +1115,61 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Driver,
-White Camry</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>Driver,
-White Camry</t>
-        </is>
-      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
     </row>
@@ -1166,38 +1180,70 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>Ian</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
@@ -1207,24 +1253,74 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Driver,
+White Camry</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Driver,
+White Camry</t>
+        </is>
+      </c>
       <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
@@ -1234,36 +1330,40 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>5:30 AM MEET AT GRAFTON PARK N RIDE</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>LEAVE OFFICE @ 4:15 AM</t>
-        </is>
-      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>6:00 AM MEET AT GRAFTON PARK N RIDE</t>
-        </is>
-      </c>
+      <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
@@ -1274,43 +1374,23 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
@@ -1321,17 +1401,13 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>5:30 AM MEET AT GRAFTON PARK N RIDE</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1339,23 +1415,19 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>LEAVE OFFICE @ 4:15 AM</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM MEET AT GRAFTON PARK N RIDE</t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
@@ -1370,7 +1442,7 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1014, SOUTH MILWAUKEE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1378,7 +1450,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1169 GREEN BAY</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1386,7 +1458,7 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1157, STURGEON BAY</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -1394,7 +1466,7 @@
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1012, CUDAHY</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -1402,7 +1474,7 @@
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1228, KIEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -1417,7 +1489,7 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2414 10TH AVENUE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1425,7 +1497,7 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2845 GREENBRIER RD</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1433,7 +1505,7 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>1910 ALABAMA ST</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -1441,7 +1513,7 @@
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t>5900 S LAKE DRIVE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -1449,7 +1521,7 @@
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr">
         <is>
-          <t>1001 SERVICE RD, SUITE 101</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
@@ -1464,7 +1536,7 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/RKFe5ejXrhF2</t>
+          <t>AURORA OUTPATIENT RX #1014, SOUTH MILWAUKEE</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1472,7 +1544,7 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/rneu9EfJWkGa7fvJ7</t>
+          <t>AURORA OUTPATIENT RX #1169 GREEN BAY</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1480,7 +1552,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/PT62tX3aqSWcCC5G6</t>
+          <t>AURORA OUTPATIENT RX #1157, STURGEON BAY</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -1488,7 +1560,7 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/gJd9TeY5Upy</t>
+          <t>AURORA OUTPATIENT RX #1012, CUDAHY</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1496,7 +1568,7 @@
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/D7vYqH7GJJNUTNaT7</t>
+          <t>AURORA OUTPATIENT RX #1228, KIEL</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -1509,23 +1581,43 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2414 10TH AVENUE</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2845 GREENBRIER RD</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>1910 ALABAMA ST</t>
+        </is>
+      </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>5900 S LAKE DRIVE</t>
+        </is>
+      </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>1001 SERVICE RD, SUITE 101</t>
+        </is>
+      </c>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
@@ -1535,87 +1627,45 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/RKFe5ejXrhF2</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/rneu9EfJWkGa7fvJ7</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/PT62tX3aqSWcCC5G6</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/gJd9TeY5Upy</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>Driver,
-Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/D7vYqH7GJJNUTNaT7</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>
@@ -1624,28 +1674,12 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
@@ -1656,16 +1690,8 @@
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
@@ -1677,31 +1703,85 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Driver,
+Equip</t>
+        </is>
+      </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>
@@ -1710,32 +1790,48 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>5:15 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
-        </is>
-      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
@@ -1745,40 +1841,32 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -1789,39 +1877,31 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>5:15 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
@@ -1832,17 +1912,13 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1094 MOB MILWAUKEE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -1850,19 +1926,23 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1140, BURLINGTON</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1710 MILWAUKEE</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -1877,7 +1957,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #071, MILWAUKEE (BAYVIEW)</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1885,7 +1965,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2801 W KINNICKINNIC RIVER PKWY, SUITE 160</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -1893,7 +1973,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>250 MCHENRY ST</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -1905,7 +1985,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>7878 N 76TH STREET SUITE 101</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -1920,7 +2000,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>123 W OKLAHOMA AVE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1928,7 +2008,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/bHQey4yoESDm33MX6</t>
+          <t>AURORA OUTPATIENT RX #1094 MOB MILWAUKEE</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -1936,7 +2016,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/BhwydvAxRam</t>
+          <t>AURORA OUTPATIENT RX #1140, BURLINGTON</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -1948,7 +2028,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ZPqu1M89vsBwYfiL7</t>
+          <t>AURORA OUTPATIENT RX #1710 MILWAUKEE</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -1963,7 +2043,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/E7WeRqjUoiY53hjHA</t>
+          <t>PIGGLY WIGGLY #071, MILWAUKEE (BAYVIEW)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1971,13 +2051,17 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>REMINDER PRICE FILE NEEDED FOR THIS ORG SITE</t>
+          <t>2801 W KINNICKINNIC RIVER PKWY, SUITE 160</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>250 MCHENRY ST</t>
+        </is>
+      </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
@@ -1985,7 +2069,11 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>7878 N 76TH STREET SUITE 101</t>
+        </is>
+      </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
@@ -1996,53 +2084,40 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>123 W OKLAHOMA AVE</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>ENTRANCE IS ON THE 27TH ST SIDE OF BUILDING</t>
+          <t>https://goo.gl/maps/bHQey4yoESDm33MX6</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/BhwydvAxRam</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/ZPqu1M89vsBwYfiL7</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
     </row>
@@ -2051,36 +2126,24 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+          <t>https://maps.app.goo.gl/E7WeRqjUoiY53hjHA</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>REMINDER PRICE FILE NEEDED FOR THIS ORG SITE</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
@@ -2098,45 +2161,54 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Lexi</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ENTRANCE IS ON THE 27TH ST SIDE OF BUILDING</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
         <is>
           <t>1)</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van, Equip</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
@@ -2147,22 +2219,34 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
@@ -2170,11 +2254,7 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Office - Cars Misc</t>
-        </is>
-      </c>
+      <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -2186,26 +2266,34 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>2:30 PM START</t>
-        </is>
-      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
@@ -2213,11 +2301,7 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
@@ -2229,12 +2313,12 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -2244,11 +2328,7 @@
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>PAID SUPV MEETING</t>
-        </is>
-      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
@@ -2256,7 +2336,11 @@
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Office - Cars Misc</t>
+        </is>
+      </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
@@ -2268,12 +2352,12 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -2285,7 +2369,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Please plan to log in 10 mins prior to the start of this meeting</t>
+          <t>2:30 PM START</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2295,7 +2379,11 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
@@ -2307,12 +2395,12 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2324,7 +2412,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Please have your camera on for this meeting</t>
+          <t>PAID SUPV MEETING</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2344,8 +2432,16 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
@@ -2355,7 +2451,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Please click on the link below to join this meeting</t>
+          <t>Please plan to log in 10 mins prior to the start of this meeting</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2375,8 +2471,16 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
@@ -2386,7 +2490,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>https://meet.google.com/xxt-vyje-rvo</t>
+          <t>Please have your camera on for this meeting</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2407,11 +2511,7 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
@@ -2419,7 +2519,11 @@
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Please click on the link below to join this meeting</t>
+        </is>
+      </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
@@ -2438,25 +2542,17 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>MODAS</t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>https://meet.google.com/xxt-vyje-rvo</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -2479,7 +2575,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>*SALE INV - KELLEY BUYING</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -2488,16 +2584,8 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
@@ -2518,7 +2606,7 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>WALWORTH CELLARS</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -2529,12 +2617,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -2557,7 +2645,7 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>690 KENOSHA ST</t>
+          <t>*SALE INV - KELLEY BUYING</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -2568,12 +2656,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Heidi</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -2596,7 +2684,7 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/MtDv1BQiwir2d1ZS7</t>
+          <t>WALWORTH CELLARS</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -2607,12 +2695,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -2633,7 +2721,11 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>690 KENOSHA ST</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
@@ -2642,12 +2734,12 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Jake S</t>
+          <t>Heidi</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -2667,21 +2759,13 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>https://maps.app.goo.gl/MtDv1BQiwir2d1ZS7</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2689,12 +2773,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -2714,21 +2798,9 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Red Camry</t>
-        </is>
-      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2736,12 +2808,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Jake S</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -2763,17 +2835,17 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Mike G</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -2783,12 +2855,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -2810,17 +2882,17 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Red Camry</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -2830,12 +2902,12 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -2857,12 +2929,12 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Palmer</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2877,12 +2949,12 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -2904,12 +2976,12 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2924,12 +2996,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -2949,9 +3021,21 @@
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2959,12 +3043,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -2984,9 +3068,21 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2994,12 +3090,12 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3029,12 +3125,12 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Palmer</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -3064,12 +3160,12 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -3099,12 +3195,12 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Palmer</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -3119,6 +3215,76 @@
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
     </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/02-09-25 to 02-15-25 Milwaukee Schedule.xlsx
+++ b/02-09-25 to 02-15-25 Milwaukee Schedule.xlsx
@@ -1895,7 +1895,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t xml:space="preserve">7:00 AM START  </t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -1934,7 +1934,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -1979,7 +1979,11 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>AURORA OUTPATIENT RX #1312 KAUKAUNA</t>
+        </is>
+      </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
@@ -2022,7 +2026,11 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>1500 ARBOR WAY, SUITE 100</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
@@ -2065,7 +2073,11 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/PziVgs1f7GUmVioX6</t>
+        </is>
+      </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
@@ -2146,9 +2158,21 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>

--- a/02-09-25 to 02-15-25 Milwaukee Schedule.xlsx
+++ b/02-09-25 to 02-15-25 Milwaukee Schedule.xlsx
@@ -1280,7 +1280,11 @@
           <t>Monica</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Until 10:15</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>

--- a/02-09-25 to 02-15-25 Milwaukee Schedule.xlsx
+++ b/02-09-25 to 02-15-25 Milwaukee Schedule.xlsx
@@ -1311,7 +1311,7 @@
       <c r="S18" t="inlineStr">
         <is>
           <t>Driver,
-White Camry</t>
+Red Camry</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>

--- a/02-09-25 to 02-15-25 Milwaukee Schedule.xlsx
+++ b/02-09-25 to 02-15-25 Milwaukee Schedule.xlsx
@@ -1201,7 +1201,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1411,7 +1411,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>5:30 AM MEET AT GRAFTON PARK N RIDE</t>
+          <t>5:15 AM MEET AT BAYSHORE PARK N RIDE</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>

--- a/02-09-25 to 02-15-25 Milwaukee Schedule.xlsx
+++ b/02-09-25 to 02-15-25 Milwaukee Schedule.xlsx
@@ -1691,7 +1691,11 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>TO FOLLOW</t>
+        </is>
+      </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
@@ -1754,21 +1758,13 @@
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
@@ -1823,7 +1819,11 @@
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>WEST ALLIS LIQUOR &amp; TOBACCO</t>
+        </is>
+      </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
@@ -1866,7 +1866,11 @@
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>7218 W GREENFIELD AVE</t>
+        </is>
+      </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
@@ -1899,7 +1903,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t xml:space="preserve">7:00 AM START  </t>
+          <t>https://maps.app.goo.gl/xytYtemVCGCLFfWC6</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -1936,11 +1940,7 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
@@ -1982,13 +1982,21 @@
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1312 KAUKAUNA</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
@@ -2029,12 +2037,12 @@
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>1500 ARBOR WAY, SUITE 100</t>
-        </is>
-      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
@@ -2077,11 +2085,7 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/PziVgs1f7GUmVioX6</t>
-        </is>
-      </c>
+      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
@@ -2162,21 +2166,13 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>Sante Fe, Equip</t>
-        </is>
-      </c>
+          <t xml:space="preserve">7:00 AM START  </t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
@@ -2219,7 +2215,11 @@
       </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
@@ -2278,7 +2278,11 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>AURORA OUTPATIENT RX #1312 KAUKAUNA</t>
+        </is>
+      </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
@@ -2325,7 +2329,11 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>1500 ARBOR WAY, SUITE 100</t>
+        </is>
+      </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
@@ -2360,7 +2368,11 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/PziVgs1f7GUmVioX6</t>
+        </is>
+      </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
@@ -2445,9 +2457,21 @@
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>

--- a/02-09-25 to 02-15-25 Milwaukee Schedule.xlsx
+++ b/02-09-25 to 02-15-25 Milwaukee Schedule.xlsx
@@ -2042,7 +2042,11 @@
           <t>2)</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>

--- a/02-09-25 to 02-15-25 Milwaukee Schedule.xlsx
+++ b/02-09-25 to 02-15-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y65"/>
+  <dimension ref="A1:Y69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -2413,7 +2413,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2:30 PM START</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2456,7 +2456,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>PAID SUPV MEETING</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2505,11 +2505,7 @@
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>Please plan to log in 10 mins prior to the start of this meeting</t>
-        </is>
-      </c>
+      <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
@@ -2544,11 +2540,7 @@
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Please have your camera on for this meeting</t>
-        </is>
-      </c>
+      <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
@@ -2577,7 +2569,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Please click on the link below to join this meeting</t>
+          <t>2:30 PM START</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -2608,7 +2600,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>https://meet.google.com/xxt-vyje-rvo</t>
+          <t>PAID SUPV MEETING</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -2641,7 +2633,11 @@
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Please plan to log in 10 mins prior to the start of this meeting</t>
+        </is>
+      </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
@@ -2671,14 +2667,10 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Please have your camera on for this meeting</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -2710,14 +2702,10 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Please click on the link below to join this meeting</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -2749,14 +2737,10 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>https://meet.google.com/xxt-vyje-rvo</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -2788,16 +2772,8 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Heidi</t>
-        </is>
-      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
@@ -2829,12 +2805,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -2864,12 +2840,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Jake S</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -2911,12 +2887,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -2958,12 +2934,12 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Heidi</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3005,12 +2981,12 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3052,12 +3028,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Jake S</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3099,12 +3075,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3146,12 +3122,12 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3181,12 +3157,12 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -3216,12 +3192,12 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -3251,12 +3227,12 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Palmer</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -3286,12 +3262,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -3321,12 +3297,12 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -3341,6 +3317,146 @@
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
     </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/02-09-25 to 02-15-25 Milwaukee Schedule.xlsx
+++ b/02-09-25 to 02-15-25 Milwaukee Schedule.xlsx
@@ -1230,7 +1230,8 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>@ Store, 
+Equip</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
